--- a/CS BS Major Requirments.xlsx
+++ b/CS BS Major Requirments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiacorey/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyhanlakhina/Dropbox/CWRUplanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{966C7AED-9709-E34D-994D-0FD0D534CE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCA1FA7-CACD-4143-9F42-EDD9B748E7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="25600" windowHeight="14100" xr2:uid="{6018CBFA-0135-B54C-99EF-D1DB614AABC9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="14100" xr2:uid="{6018CBFA-0135-B54C-99EF-D1DB614AABC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -718,10 +718,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1043,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D947A0C6-A79F-FC4C-9EE0-E4EC6A47755B}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
